--- a/mini-game/Assets/Resources/doc/character.xlsx
+++ b/mini-game/Assets/Resources/doc/character.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>#character</t>
   </si>
@@ -40,12 +43,12 @@
     <t>攻击</t>
   </si>
   <si>
+    <t>攻击范围</t>
+  </si>
+  <si>
     <t>移动范围</t>
   </si>
   <si>
-    <t>攻击范围</t>
-  </si>
-  <si>
     <t>等级</t>
   </si>
   <si>
@@ -64,6 +67,12 @@
     <t>人物图片</t>
   </si>
   <si>
+    <t>库存</t>
+  </si>
+  <si>
+    <t>赏金</t>
+  </si>
+  <si>
     <t xml:space="preserve">character_id </t>
   </si>
   <si>
@@ -82,12 +91,12 @@
     <t>attack_damage</t>
   </si>
   <si>
+    <t xml:space="preserve">attack_range </t>
+  </si>
+  <si>
     <t xml:space="preserve">move_range </t>
   </si>
   <si>
-    <t xml:space="preserve">attack_range </t>
-  </si>
-  <si>
     <t>character_level</t>
   </si>
   <si>
@@ -106,43 +115,278 @@
     <t>character_img</t>
   </si>
   <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>reward</t>
+  </si>
+  <si>
+    <t>archer</t>
+  </si>
+  <si>
+    <t>emiya</t>
+  </si>
+  <si>
+    <t>blade</t>
+  </si>
+  <si>
+    <t>zephyr</t>
+  </si>
+  <si>
+    <t>knight</t>
+  </si>
+  <si>
+    <t>paladin</t>
+  </si>
+  <si>
+    <t>吸吸羊</t>
+  </si>
+  <si>
+    <t>转转羊</t>
+  </si>
+  <si>
+    <t>推推羊</t>
+  </si>
+  <si>
+    <t>跳跳羊</t>
+  </si>
+  <si>
     <t>#敌方角色</t>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牧羊人</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-    </font>
-    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -150,52 +394,539 @@
         <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -385,40 +1116,44 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="15.71"/>
-    <col customWidth="1" min="4" max="4" width="16.86"/>
+    <col min="2" max="2" width="15.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="16.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="12.75" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="12.75" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="12.75" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6">
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" ht="12.75" spans="1:18">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -428,13 +1163,13 @@
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -443,96 +1178,830 @@
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7">
+      <c r="O6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" ht="13.5" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="I7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="J7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="K7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="L7" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="M7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
+      <c r="N7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:15">
+      <c r="A8">
+        <v>1001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>240</v>
+      </c>
+      <c r="F8" s="5">
+        <v>110</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>4</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:15">
+      <c r="A9">
+        <v>1002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>288</v>
+      </c>
+      <c r="F9">
+        <v>132</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:15">
+      <c r="A10">
+        <v>1003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>440</v>
+      </c>
+      <c r="F10">
+        <v>120</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:15">
+      <c r="A11">
+        <v>1004</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>528</v>
+      </c>
+      <c r="F11">
+        <v>144</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:15">
+      <c r="A12">
+        <v>1005</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>528</v>
+      </c>
+      <c r="F12">
+        <v>80</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:15">
+      <c r="A13">
+        <v>1006</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>634</v>
+      </c>
+      <c r="F13">
+        <v>96</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:15">
+      <c r="A14">
+        <v>1007</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>360</v>
+      </c>
+      <c r="F14">
+        <v>225</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:15">
+      <c r="A15">
+        <v>1008</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>360</v>
+      </c>
+      <c r="F15">
+        <v>225</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:15">
+      <c r="A16">
+        <v>1009</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>360</v>
+      </c>
+      <c r="F16">
+        <v>225</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:15">
+      <c r="A17">
+        <v>1010</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>360</v>
+      </c>
+      <c r="F17">
+        <v>225</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:16">
+      <c r="A21">
+        <v>1101</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:16">
+      <c r="A22">
+        <v>1102</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:16">
+      <c r="A23">
+        <v>1103</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:16">
+      <c r="A24">
+        <v>1104</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:16">
+      <c r="A25">
+        <v>1105</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:16">
+      <c r="A26">
+        <v>1106</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:16">
+      <c r="A27">
+        <v>1107</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:16">
+      <c r="A28">
+        <v>1108</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:16">
+      <c r="A29">
+        <v>1109</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:16">
+      <c r="A30">
+        <v>1110</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:16">
+      <c r="A31">
+        <v>1111</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:16">
+      <c r="A32">
+        <v>1112</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:16">
+      <c r="A33">
+        <v>1113</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:16">
+      <c r="A34">
+        <v>1114</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" ht="12.75" spans="1:18">
+      <c r="A37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:12">
+      <c r="A38">
+        <v>1201</v>
+      </c>
+      <c r="E38">
+        <v>240</v>
+      </c>
+      <c r="F38">
+        <v>80</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:12">
+      <c r="A39">
+        <v>1202</v>
+      </c>
+      <c r="E39">
+        <v>280</v>
+      </c>
+      <c r="F39">
+        <v>85</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:12">
+      <c r="A40">
+        <v>1203</v>
+      </c>
+      <c r="E40">
+        <v>320</v>
+      </c>
+      <c r="F40">
+        <v>90</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:12">
+      <c r="A41">
+        <v>1204</v>
+      </c>
+      <c r="E41">
+        <v>360</v>
+      </c>
+      <c r="F41">
+        <v>95</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:12">
+      <c r="A42">
+        <v>1205</v>
+      </c>
+      <c r="E42">
+        <v>400</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/mini-game/Assets/Resources/doc/character.xlsx
+++ b/mini-game/Assets/Resources/doc/character.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>#character</t>
   </si>
@@ -155,6 +155,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>#</t>
     </r>
     <r>
@@ -168,16 +175,19 @@
       <t>牧羊人</t>
     </r>
   </si>
+  <si>
+    <t>shepherd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -224,7 +234,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,14 +292,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,40 +360,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,63 +377,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,187 +406,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,10 +617,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -633,48 +641,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,151 +673,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,7 +1138,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1280,7 +1290,6 @@
       <c r="H8" s="5">
         <v>4</v>
       </c>
-      <c r="I8"/>
       <c r="J8">
         <v>3</v>
       </c>
@@ -1319,7 +1328,6 @@
       <c r="H9">
         <v>4</v>
       </c>
-      <c r="I9"/>
       <c r="J9">
         <v>5</v>
       </c>
@@ -1358,7 +1366,6 @@
       <c r="H10">
         <v>4</v>
       </c>
-      <c r="I10"/>
       <c r="J10">
         <v>3</v>
       </c>
@@ -1397,7 +1404,6 @@
       <c r="H11">
         <v>4</v>
       </c>
-      <c r="I11"/>
       <c r="J11">
         <v>5</v>
       </c>
@@ -1436,7 +1442,6 @@
       <c r="H12">
         <v>5</v>
       </c>
-      <c r="I12"/>
       <c r="J12">
         <v>3</v>
       </c>
@@ -1475,7 +1480,6 @@
       <c r="H13">
         <v>5</v>
       </c>
-      <c r="I13"/>
       <c r="J13">
         <v>5</v>
       </c>
@@ -1514,7 +1518,6 @@
       <c r="H14">
         <v>5</v>
       </c>
-      <c r="I14"/>
       <c r="J14">
         <v>10</v>
       </c>
@@ -1553,7 +1556,6 @@
       <c r="H15">
         <v>5</v>
       </c>
-      <c r="I15"/>
       <c r="J15">
         <v>10</v>
       </c>
@@ -1592,7 +1594,6 @@
       <c r="H16">
         <v>5</v>
       </c>
-      <c r="I16"/>
       <c r="J16">
         <v>10</v>
       </c>
@@ -1631,7 +1632,6 @@
       <c r="H17">
         <v>5</v>
       </c>
-      <c r="I17"/>
       <c r="J17">
         <v>10</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" ht="12.75" spans="1:18">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -1889,6 +1889,12 @@
       <c r="A38">
         <v>1201</v>
       </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
       <c r="E38">
         <v>240</v>
       </c>
@@ -1912,6 +1918,12 @@
       <c r="A39">
         <v>1202</v>
       </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
       <c r="E39">
         <v>280</v>
       </c>
@@ -1935,6 +1947,12 @@
       <c r="A40">
         <v>1203</v>
       </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
       <c r="E40">
         <v>320</v>
       </c>
@@ -1958,6 +1976,12 @@
       <c r="A41">
         <v>1204</v>
       </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
       <c r="E41">
         <v>360</v>
       </c>
@@ -1980,6 +2004,12 @@
     <row r="42" customHeight="1" spans="1:12">
       <c r="A42">
         <v>1205</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
       </c>
       <c r="E42">
         <v>400</v>

--- a/mini-game/Assets/Resources/doc/character.xlsx
+++ b/mini-game/Assets/Resources/doc/character.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>#character</t>
   </si>
@@ -73,6 +73,12 @@
     <t>赏金</t>
   </si>
   <si>
+    <t>升星血量提升系数</t>
+  </si>
+  <si>
+    <t>升星攻击提升</t>
+  </si>
+  <si>
     <t xml:space="preserve">character_id </t>
   </si>
   <si>
@@ -119,6 +125,12 @@
   </si>
   <si>
     <t>reward</t>
+  </si>
+  <si>
+    <t>hp_index</t>
+  </si>
+  <si>
+    <t>attack_index</t>
   </si>
   <si>
     <t>archer</t>
@@ -184,10 +196,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -247,10 +259,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,14 +290,91 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,96 +388,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -412,13 +424,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,19 +538,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,25 +580,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,109 +592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,6 +623,21 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,13 +666,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,6 +686,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,190 +724,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1137,8 +1149,8 @@
   </sheetPr>
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1212,65 +1224,75 @@
       <c r="P6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-    </row>
-    <row r="7" ht="13.5" spans="1:16">
+      <c r="Q6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:15">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:18">
       <c r="A8">
         <v>1001</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1302,13 +1324,19 @@
       <c r="O8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:15">
+      <c r="Q8">
+        <v>1.5</v>
+      </c>
+      <c r="R8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:18">
       <c r="A9">
         <v>1002</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1340,13 +1368,19 @@
       <c r="O9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:15">
+      <c r="Q9">
+        <v>1.5</v>
+      </c>
+      <c r="R9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:18">
       <c r="A10">
         <v>1003</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1378,13 +1412,19 @@
       <c r="O10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:15">
+      <c r="Q10">
+        <v>1.5</v>
+      </c>
+      <c r="R10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:18">
       <c r="A11">
         <v>1004</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1416,13 +1456,19 @@
       <c r="O11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:15">
+      <c r="Q11">
+        <v>1.5</v>
+      </c>
+      <c r="R11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:18">
       <c r="A12">
         <v>1005</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1454,13 +1500,19 @@
       <c r="O12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:15">
+      <c r="Q12">
+        <v>1.5</v>
+      </c>
+      <c r="R12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:18">
       <c r="A13">
         <v>1006</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1492,13 +1544,19 @@
       <c r="O13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:15">
+      <c r="Q13">
+        <v>1.5</v>
+      </c>
+      <c r="R13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:18">
       <c r="A14">
         <v>1007</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1530,13 +1588,19 @@
       <c r="O14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:15">
+      <c r="Q14">
+        <v>1.5</v>
+      </c>
+      <c r="R14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:18">
       <c r="A15">
         <v>1008</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1568,13 +1632,19 @@
       <c r="O15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:15">
+      <c r="Q15">
+        <v>1.5</v>
+      </c>
+      <c r="R15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:18">
       <c r="A16">
         <v>1009</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1606,13 +1676,19 @@
       <c r="O16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:15">
+      <c r="Q16">
+        <v>1.5</v>
+      </c>
+      <c r="R16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:18">
       <c r="A17">
         <v>1010</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1644,10 +1720,16 @@
       <c r="O17">
         <v>1</v>
       </c>
+      <c r="Q17">
+        <v>1.5</v>
+      </c>
+      <c r="R17">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="20" ht="12.75" spans="1:18">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
@@ -1865,7 +1947,7 @@
     </row>
     <row r="37" ht="12.75" spans="1:18">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
@@ -1890,7 +1972,7 @@
         <v>1201</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1919,7 +2001,7 @@
         <v>1202</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1948,7 +2030,7 @@
         <v>1203</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1977,7 +2059,7 @@
         <v>1204</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2006,7 +2088,7 @@
         <v>1205</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D42">
         <v>0</v>

--- a/mini-game/Assets/Resources/doc/character.xlsx
+++ b/mini-game/Assets/Resources/doc/character.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
   <si>
     <t>#character</t>
   </si>
@@ -164,6 +164,70 @@
   </si>
   <si>
     <t>#敌方角色</t>
+  </si>
+  <si>
+    <t>三头犬</t>
+  </si>
+  <si>
+    <t>地狱犬</t>
+  </si>
+  <si>
+    <t>巨斧战士</t>
+  </si>
+  <si>
+    <t>虚空守卫</t>
+  </si>
+  <si>
+    <t>食梦者</t>
+  </si>
+  <si>
+    <r>
+      <t>深红守卫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+  </si>
+  <si>
+    <t>深红守卫B</t>
+  </si>
+  <si>
+    <t>冰之女巫</t>
+  </si>
+  <si>
+    <t>炎魔</t>
+  </si>
+  <si>
+    <r>
+      <t>四皇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+  </si>
+  <si>
+    <t>四皇B</t>
+  </si>
+  <si>
+    <t>四皇C</t>
+  </si>
+  <si>
+    <t>四皇D</t>
+  </si>
+  <si>
+    <t>死亡骑士</t>
   </si>
   <si>
     <r>
@@ -246,6 +310,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -253,7 +339,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,131 +454,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,187 +482,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,30 +691,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -666,35 +706,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,151 +740,199 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1149,8 +1213,8 @@
   </sheetPr>
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1567,9 +1631,7 @@
       <c r="E14">
         <v>360</v>
       </c>
-      <c r="F14">
-        <v>225</v>
-      </c>
+      <c r="F14"/>
       <c r="G14">
         <v>1</v>
       </c>
@@ -1611,9 +1673,7 @@
       <c r="E15">
         <v>360</v>
       </c>
-      <c r="F15">
-        <v>225</v>
-      </c>
+      <c r="F15"/>
       <c r="G15">
         <v>1</v>
       </c>
@@ -1655,9 +1715,7 @@
       <c r="E16">
         <v>360</v>
       </c>
-      <c r="F16">
-        <v>225</v>
-      </c>
+      <c r="F16"/>
       <c r="G16">
         <v>1</v>
       </c>
@@ -1699,9 +1757,7 @@
       <c r="E17">
         <v>360</v>
       </c>
-      <c r="F17">
-        <v>225</v>
-      </c>
+      <c r="F17"/>
       <c r="G17">
         <v>1</v>
       </c>
@@ -1753,11 +1809,32 @@
       <c r="A21">
         <v>1101</v>
       </c>
+      <c r="B21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
       <c r="D21">
         <v>1</v>
       </c>
+      <c r="E21">
+        <v>422</v>
+      </c>
+      <c r="F21">
+        <v>64</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
       <c r="L21">
         <v>1</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="P21">
         <v>7</v>
@@ -1767,11 +1844,32 @@
       <c r="A22">
         <v>1102</v>
       </c>
+      <c r="B22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
       <c r="D22">
         <v>1</v>
       </c>
+      <c r="E22">
+        <v>507</v>
+      </c>
+      <c r="F22">
+        <v>77</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
       <c r="L22">
         <v>1</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="P22">
         <v>7</v>
@@ -1781,11 +1879,32 @@
       <c r="A23">
         <v>1103</v>
       </c>
+      <c r="B23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
       <c r="D23">
         <v>1</v>
       </c>
+      <c r="E23">
+        <v>352</v>
+      </c>
+      <c r="F23">
+        <v>96</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
       <c r="L23">
         <v>1</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="P23">
         <v>7</v>
@@ -1795,11 +1914,32 @@
       <c r="A24">
         <v>1104</v>
       </c>
+      <c r="B24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
       <c r="D24">
         <v>1</v>
       </c>
+      <c r="E24">
+        <v>422</v>
+      </c>
+      <c r="F24">
+        <v>115</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
       <c r="L24">
         <v>1</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="P24">
         <v>7</v>
@@ -1809,11 +1949,32 @@
       <c r="A25">
         <v>1105</v>
       </c>
+      <c r="B25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
       <c r="D25">
         <v>1</v>
       </c>
+      <c r="E25">
+        <v>528</v>
+      </c>
+      <c r="F25">
+        <v>144</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
       <c r="L25">
         <v>1</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="P25">
         <v>7</v>
@@ -1823,11 +1984,32 @@
       <c r="A26">
         <v>1106</v>
       </c>
+      <c r="B26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
       <c r="D26">
         <v>1</v>
       </c>
+      <c r="E26">
+        <v>422</v>
+      </c>
+      <c r="F26">
+        <v>115</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
       <c r="L26">
         <v>1</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="P26">
         <v>7</v>
@@ -1837,11 +2019,32 @@
       <c r="A27">
         <v>1107</v>
       </c>
+      <c r="B27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
       <c r="D27">
         <v>1</v>
       </c>
+      <c r="E27">
+        <v>422</v>
+      </c>
+      <c r="F27">
+        <v>115</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
       <c r="L27">
         <v>1</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="P27">
         <v>7</v>
@@ -1851,11 +2054,32 @@
       <c r="A28">
         <v>1108</v>
       </c>
+      <c r="B28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
       <c r="D28">
         <v>1</v>
       </c>
+      <c r="E28">
+        <v>288</v>
+      </c>
+      <c r="F28">
+        <v>132</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
       <c r="L28">
         <v>1</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="P28">
         <v>7</v>
@@ -1865,11 +2089,32 @@
       <c r="A29">
         <v>1109</v>
       </c>
+      <c r="B29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
       <c r="D29">
         <v>1</v>
       </c>
+      <c r="E29">
+        <v>345</v>
+      </c>
+      <c r="F29">
+        <v>159</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
       <c r="L29">
         <v>1</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="P29">
         <v>7</v>
@@ -1879,11 +2124,32 @@
       <c r="A30">
         <v>1110</v>
       </c>
+      <c r="B30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
       <c r="D30">
         <v>1</v>
       </c>
+      <c r="E30">
+        <v>414</v>
+      </c>
+      <c r="F30">
+        <v>191</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
       <c r="L30">
         <v>1</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="P30">
         <v>7</v>
@@ -1893,11 +2159,32 @@
       <c r="A31">
         <v>1111</v>
       </c>
+      <c r="B31" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
       <c r="D31">
         <v>1</v>
       </c>
+      <c r="E31">
+        <v>760</v>
+      </c>
+      <c r="F31">
+        <v>208</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
       <c r="L31">
         <v>1</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="P31">
         <v>7</v>
@@ -1907,11 +2194,32 @@
       <c r="A32">
         <v>1112</v>
       </c>
+      <c r="B32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
       <c r="D32">
         <v>1</v>
       </c>
+      <c r="E32">
+        <v>414</v>
+      </c>
+      <c r="F32">
+        <v>191</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
       <c r="L32">
         <v>1</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="P32">
         <v>7</v>
@@ -1921,11 +2229,32 @@
       <c r="A33">
         <v>1113</v>
       </c>
+      <c r="B33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
       <c r="D33">
         <v>1</v>
       </c>
+      <c r="E33">
+        <v>913</v>
+      </c>
+      <c r="F33">
+        <v>139</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
       <c r="L33">
         <v>1</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="P33">
         <v>7</v>
@@ -1935,19 +2264,40 @@
       <c r="A34">
         <v>1114</v>
       </c>
+      <c r="B34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
       <c r="D34">
         <v>1</v>
       </c>
+      <c r="E34">
+        <v>1065</v>
+      </c>
+      <c r="F34">
+        <v>162</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
       <c r="L34">
         <v>1</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="P34">
         <v>7</v>
       </c>
     </row>
-    <row r="37" ht="12.75" spans="1:18">
+    <row r="37" spans="1:18">
       <c r="A37" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
@@ -1972,13 +2322,13 @@
         <v>1201</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="F38">
         <v>80</v>
@@ -2001,16 +2351,16 @@
         <v>1202</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="F39">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2030,16 +2380,16 @@
         <v>1203</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="F40">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -2059,16 +2409,16 @@
         <v>1204</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="F41">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2088,16 +2438,16 @@
         <v>1205</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="F42">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G42">
         <v>1</v>

--- a/mini-game/Assets/Resources/doc/character.xlsx
+++ b/mini-game/Assets/Resources/doc/character.xlsx
@@ -181,30 +181,25 @@
     <t>食梦者</t>
   </si>
   <si>
-    <r>
-      <t>深红守卫</t>
-    </r>
+    <t>深红守卫</t>
+  </si>
+  <si>
+    <t>深红守卫-零式</t>
+  </si>
+  <si>
+    <t>冰之女巫</t>
+  </si>
+  <si>
+    <t>炎魔</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>A</t>
-    </r>
-  </si>
-  <si>
-    <t>深红守卫B</t>
-  </si>
-  <si>
-    <t>冰之女巫</t>
-  </si>
-  <si>
-    <t>炎魔</t>
-  </si>
-  <si>
-    <r>
       <t>四皇</t>
     </r>
     <r>
@@ -260,9 +255,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -311,6 +306,73 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,15 +386,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,7 +425,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -354,14 +433,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,45 +448,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
@@ -422,44 +455,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -482,19 +477,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,163 +633,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,6 +682,30 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,28 +734,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,6 +754,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,175 +783,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1213,8 +1208,8 @@
   </sheetPr>
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1368,7 +1363,7 @@
         <v>240</v>
       </c>
       <c r="F8" s="5">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="G8" s="5">
         <v>2</v>
@@ -1412,7 +1407,7 @@
         <v>288</v>
       </c>
       <c r="F9">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1631,7 +1626,6 @@
       <c r="E14">
         <v>360</v>
       </c>
-      <c r="F14"/>
       <c r="G14">
         <v>1</v>
       </c>
@@ -1673,7 +1667,6 @@
       <c r="E15">
         <v>360</v>
       </c>
-      <c r="F15"/>
       <c r="G15">
         <v>1</v>
       </c>
@@ -1715,7 +1708,6 @@
       <c r="E16">
         <v>360</v>
       </c>
-      <c r="F16"/>
       <c r="G16">
         <v>1</v>
       </c>
@@ -1757,7 +1749,6 @@
       <c r="E17">
         <v>360</v>
       </c>
-      <c r="F17"/>
       <c r="G17">
         <v>1</v>
       </c>
@@ -2067,7 +2058,7 @@
         <v>288</v>
       </c>
       <c r="F28">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2102,7 +2093,7 @@
         <v>345</v>
       </c>
       <c r="F29">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2137,7 +2128,7 @@
         <v>414</v>
       </c>
       <c r="F30">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -2207,7 +2198,7 @@
         <v>414</v>
       </c>
       <c r="F32">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -2295,7 +2286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" ht="12.75" spans="1:18">
       <c r="A37" s="2" t="s">
         <v>64</v>
       </c>

--- a/mini-game/Assets/Resources/doc/character.xlsx
+++ b/mini-game/Assets/Resources/doc/character.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
   <si>
     <t>角色id</t>
   </si>
@@ -127,33 +127,173 @@
     <t>archer</t>
   </si>
   <si>
+    <r>
+      <t>射手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
     <t>emiya</t>
   </si>
   <si>
-    <t>blade</t>
+    <r>
+      <t>射手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>axe</t>
+  </si>
+  <si>
+    <r>
+      <t>战士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
   </si>
   <si>
     <t>zephyr</t>
   </si>
   <si>
+    <r>
+      <t>战士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
     <t>knight</t>
   </si>
   <si>
+    <r>
+      <t>骑士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
     <t>paladin</t>
   </si>
   <si>
+    <r>
+      <t>骑士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
     <t>吸吸羊</t>
   </si>
   <si>
+    <r>
+      <t>法师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
     <t>转转羊</t>
   </si>
   <si>
+    <r>
+      <t>法师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
     <t>推推羊</t>
   </si>
   <si>
+    <r>
+      <t>法师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
     <t>跳跳羊</t>
   </si>
   <si>
+    <r>
+      <t>法师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
     <t>三头犬</t>
   </si>
   <si>
@@ -179,6 +319,9 @@
   </si>
   <si>
     <t>炎魔</t>
+  </si>
+  <si>
+    <t>奈哥尔</t>
   </si>
   <si>
     <r>
@@ -201,10 +344,19 @@
     </r>
   </si>
   <si>
+    <t>里昂</t>
+  </si>
+  <si>
     <t>四皇B</t>
   </si>
   <si>
+    <t>拜狱</t>
+  </si>
+  <si>
     <t>四皇C</t>
+  </si>
+  <si>
+    <t>赛罗斯</t>
   </si>
   <si>
     <t>四皇D</t>
@@ -221,10 +373,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -266,9 +418,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,66 +517,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,6 +526,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,21 +556,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,187 +577,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,30 +786,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -675,20 +803,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,6 +836,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,157 +875,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1154,7 +1306,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="$A27:$XFD29"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1163,7 +1315,7 @@
     <col min="4" max="4" width="16.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" ht="12.75" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1309,6 +1461,9 @@
       <c r="L3">
         <v>1</v>
       </c>
+      <c r="N3" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="O3">
         <v>3</v>
       </c>
@@ -1324,7 +1479,7 @@
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1352,6 +1507,9 @@
       </c>
       <c r="L4">
         <v>1</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="O4">
         <v>3</v>
@@ -1368,7 +1526,7 @@
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1396,6 +1554,9 @@
       </c>
       <c r="L5">
         <v>1</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="O5">
         <v>3</v>
@@ -1412,7 +1573,7 @@
         <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1440,6 +1601,9 @@
       </c>
       <c r="L6">
         <v>1</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="O6">
         <v>3</v>
@@ -1456,7 +1620,7 @@
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1484,6 +1648,9 @@
       </c>
       <c r="L7">
         <v>1</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="O7">
         <v>3</v>
@@ -1500,7 +1667,7 @@
         <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1528,6 +1695,9 @@
       </c>
       <c r="L8">
         <v>1</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="O8">
         <v>3</v>
@@ -1544,7 +1714,7 @@
         <v>1007</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1569,6 +1739,9 @@
       </c>
       <c r="L9">
         <v>1</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1585,7 +1758,7 @@
         <v>1008</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1610,6 +1783,9 @@
       </c>
       <c r="L10">
         <v>1</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -1626,7 +1802,7 @@
         <v>1009</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1651,6 +1827,9 @@
       </c>
       <c r="L11">
         <v>1</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -1667,7 +1846,7 @@
         <v>1010</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1692,6 +1871,9 @@
       </c>
       <c r="L12">
         <v>1</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -1708,7 +1890,7 @@
         <v>1101</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1732,7 +1914,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="P13">
         <v>7</v>
@@ -1743,7 +1925,7 @@
         <v>1102</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1767,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="P14">
         <v>7</v>
@@ -1778,7 +1960,7 @@
         <v>1103</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1802,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="P15">
         <v>7</v>
@@ -1813,7 +1995,7 @@
         <v>1104</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1837,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="P16">
         <v>7</v>
@@ -1848,7 +2030,7 @@
         <v>1105</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -1872,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="P17">
         <v>7</v>
@@ -1883,7 +2065,7 @@
         <v>1106</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1907,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="P18">
         <v>7</v>
@@ -1918,7 +2100,7 @@
         <v>1107</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1942,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P19">
         <v>7</v>
@@ -1953,7 +2135,7 @@
         <v>1108</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1977,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P20">
         <v>7</v>
@@ -1988,7 +2170,7 @@
         <v>1109</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -2012,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="P21">
         <v>7</v>
@@ -2023,7 +2205,7 @@
         <v>1110</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -2047,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="P22">
         <v>7</v>
@@ -2058,7 +2240,7 @@
         <v>1111</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -2082,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="P23">
         <v>7</v>
@@ -2093,7 +2275,7 @@
         <v>1112</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -2117,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="P24">
         <v>7</v>
@@ -2128,7 +2310,7 @@
         <v>1113</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -2152,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="P25">
         <v>7</v>
@@ -2163,7 +2345,7 @@
         <v>1114</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -2187,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="P26">
         <v>7</v>
@@ -2198,7 +2380,7 @@
         <v>1201</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2227,7 +2409,7 @@
         <v>1202</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2256,7 +2438,7 @@
         <v>1203</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2285,7 +2467,7 @@
         <v>1204</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2314,7 +2496,7 @@
         <v>1205</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D31">
         <v>0</v>

--- a/mini-game/Assets/Resources/doc/character.xlsx
+++ b/mini-game/Assets/Resources/doc/character.xlsx
@@ -128,6 +128,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>射手</t>
     </r>
     <r>
@@ -145,6 +151,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>射手</t>
     </r>
     <r>
@@ -162,6 +174,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>战士</t>
     </r>
     <r>
@@ -179,6 +197,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>战士</t>
     </r>
     <r>
@@ -196,6 +220,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>骑士</t>
     </r>
     <r>
@@ -213,6 +243,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>骑士</t>
     </r>
     <r>
@@ -230,6 +266,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>法师</t>
     </r>
     <r>
@@ -247,6 +289,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>法师</t>
     </r>
     <r>
@@ -264,6 +312,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>法师</t>
     </r>
     <r>
@@ -281,6 +335,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>法师</t>
     </r>
     <r>
@@ -375,8 +435,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -412,14 +472,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,7 +487,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,7 +511,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,16 +522,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,6 +545,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -516,28 +584,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -561,6 +607,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -577,13 +637,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,169 +817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,17 +846,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,17 +870,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,21 +933,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -886,148 +946,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1306,7 +1366,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1371,7 +1431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" ht="13.5" spans="1:18">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -2074,10 +2134,10 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>422</v>
+        <v>352</v>
       </c>
       <c r="F18">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="G18">
         <v>1</v>

--- a/mini-game/Assets/Resources/doc/character.xlsx
+++ b/mini-game/Assets/Resources/doc/character.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>角色id</t>
   </si>
@@ -425,7 +425,7 @@
     <t>死亡骑士</t>
   </si>
   <si>
-    <t>shepherd</t>
+    <t>牧羊人</t>
   </si>
 </sst>
 </file>
@@ -433,10 +433,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -474,20 +474,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,52 +510,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -584,6 +538,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -600,27 +615,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -637,187 +637,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,17 +846,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -865,7 +859,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,21 +875,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,24 +896,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -943,151 +904,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1363,10 +1363,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -2435,21 +2435,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:12">
+    <row r="27" customHeight="1" spans="1:14">
       <c r="A27">
         <v>1201</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="F27">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2463,22 +2463,25 @@
       <c r="L27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:12">
+      <c r="N27" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:14">
       <c r="A28">
         <v>1202</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="F28">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2492,22 +2495,25 @@
       <c r="L28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:12">
+      <c r="N28" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:14">
       <c r="A29">
         <v>1203</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="F29">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2521,22 +2527,25 @@
       <c r="L29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:12">
+      <c r="N29" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:14">
       <c r="A30">
         <v>1204</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="F30">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -2550,34 +2559,8 @@
       <c r="L30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:12">
-      <c r="A31">
-        <v>1205</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="N30" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>440</v>
-      </c>
-      <c r="F31">
-        <v>120</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>4</v>
-      </c>
-      <c r="I31">
-        <v>5</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/mini-game/Assets/Resources/doc/character.xlsx
+++ b/mini-game/Assets/Resources/doc/character.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
   <si>
     <t>角色id</t>
   </si>
@@ -372,6 +372,9 @@
     <t>深红守卫</t>
   </si>
   <si>
+    <t>澪</t>
+  </si>
+  <si>
     <t>深红守卫-零式</t>
   </si>
   <si>
@@ -433,10 +436,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -474,12 +477,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,25 +495,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -533,21 +536,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,7 +565,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,15 +573,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,8 +617,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,25 +646,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,151 +814,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,11 +849,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,17 +873,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,6 +923,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -928,70 +946,55 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1000,94 +1003,94 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1366,7 +1369,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -2184,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P19">
         <v>7</v>
@@ -2195,7 +2198,7 @@
         <v>1108</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2219,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P20">
         <v>7</v>
@@ -2230,7 +2233,7 @@
         <v>1109</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -2254,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P21">
         <v>7</v>
@@ -2265,7 +2268,7 @@
         <v>1110</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -2289,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P22">
         <v>7</v>
@@ -2300,7 +2303,7 @@
         <v>1111</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -2324,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P23">
         <v>7</v>
@@ -2335,7 +2338,7 @@
         <v>1112</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -2359,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P24">
         <v>7</v>
@@ -2370,7 +2373,7 @@
         <v>1113</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -2394,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P25">
         <v>7</v>
@@ -2405,7 +2408,7 @@
         <v>1114</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -2429,7 +2432,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P26">
         <v>7</v>
@@ -2440,7 +2443,7 @@
         <v>1201</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2464,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:14">
@@ -2472,7 +2475,7 @@
         <v>1202</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2496,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:14">
@@ -2504,7 +2507,7 @@
         <v>1203</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2528,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:14">
@@ -2536,7 +2539,7 @@
         <v>1204</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2560,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/mini-game/Assets/Resources/doc/character.xlsx
+++ b/mini-game/Assets/Resources/doc/character.xlsx
@@ -438,8 +438,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -474,6 +474,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -481,8 +489,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,62 +581,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,24 +594,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,19 +617,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -640,12 +640,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -658,49 +790,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,73 +808,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,37 +820,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,17 +849,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,6 +897,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -899,47 +940,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -949,148 +949,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1369,7 +1369,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1434,7 +1434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="13.5" spans="1:18">
+    <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1524,6 +1524,7 @@
       <c r="L3">
         <v>1</v>
       </c>
+      <c r="M3"/>
       <c r="N3" s="6" t="s">
         <v>37</v>
       </c>
@@ -1571,6 +1572,7 @@
       <c r="L4">
         <v>1</v>
       </c>
+      <c r="M4"/>
       <c r="N4" s="6" t="s">
         <v>39</v>
       </c>
@@ -1618,6 +1620,7 @@
       <c r="L5">
         <v>1</v>
       </c>
+      <c r="M5"/>
       <c r="N5" s="6" t="s">
         <v>41</v>
       </c>
@@ -1665,6 +1668,7 @@
       <c r="L6">
         <v>1</v>
       </c>
+      <c r="M6"/>
       <c r="N6" s="6" t="s">
         <v>43</v>
       </c>
@@ -1712,6 +1716,7 @@
       <c r="L7">
         <v>1</v>
       </c>
+      <c r="M7"/>
       <c r="N7" s="6" t="s">
         <v>45</v>
       </c>
@@ -1759,6 +1764,7 @@
       <c r="L8">
         <v>1</v>
       </c>
+      <c r="M8"/>
       <c r="N8" s="6" t="s">
         <v>47</v>
       </c>
@@ -1803,6 +1809,7 @@
       <c r="L9">
         <v>1</v>
       </c>
+      <c r="M9"/>
       <c r="N9" s="6" t="s">
         <v>49</v>
       </c>
@@ -1847,6 +1854,7 @@
       <c r="L10">
         <v>1</v>
       </c>
+      <c r="M10"/>
       <c r="N10" s="6" t="s">
         <v>51</v>
       </c>
@@ -1891,6 +1899,7 @@
       <c r="L11">
         <v>1</v>
       </c>
+      <c r="M11"/>
       <c r="N11" s="6" t="s">
         <v>53</v>
       </c>
@@ -1935,6 +1944,7 @@
       <c r="L12">
         <v>1</v>
       </c>
+      <c r="M12"/>
       <c r="N12" s="6" t="s">
         <v>55</v>
       </c>
@@ -1976,6 +1986,9 @@
       <c r="L13">
         <v>1</v>
       </c>
+      <c r="M13">
+        <v>6</v>
+      </c>
       <c r="N13" s="6" t="s">
         <v>56</v>
       </c>
@@ -2011,6 +2024,9 @@
       <c r="L14">
         <v>1</v>
       </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
       <c r="N14" s="6" t="s">
         <v>57</v>
       </c>
@@ -2046,6 +2062,9 @@
       <c r="L15">
         <v>1</v>
       </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
       <c r="N15" s="6" t="s">
         <v>58</v>
       </c>
@@ -2081,6 +2100,9 @@
       <c r="L16">
         <v>1</v>
       </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
       <c r="N16" s="6" t="s">
         <v>59</v>
       </c>
@@ -2116,6 +2138,9 @@
       <c r="L17">
         <v>1</v>
       </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
       <c r="N17" s="6" t="s">
         <v>60</v>
       </c>
@@ -2151,6 +2176,9 @@
       <c r="L18">
         <v>1</v>
       </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
       <c r="N18" s="6" t="s">
         <v>61</v>
       </c>
@@ -2186,6 +2214,9 @@
       <c r="L19">
         <v>1</v>
       </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
       <c r="N19" s="6" t="s">
         <v>63</v>
       </c>
@@ -2221,6 +2252,9 @@
       <c r="L20">
         <v>1</v>
       </c>
+      <c r="M20">
+        <v>6</v>
+      </c>
       <c r="N20" s="6" t="s">
         <v>64</v>
       </c>
@@ -2256,6 +2290,9 @@
       <c r="L21">
         <v>1</v>
       </c>
+      <c r="M21">
+        <v>6</v>
+      </c>
       <c r="N21" s="6" t="s">
         <v>65</v>
       </c>
@@ -2291,6 +2328,9 @@
       <c r="L22">
         <v>1</v>
       </c>
+      <c r="M22">
+        <v>6</v>
+      </c>
       <c r="N22" s="6" t="s">
         <v>67</v>
       </c>
@@ -2326,6 +2366,9 @@
       <c r="L23">
         <v>1</v>
       </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
       <c r="N23" s="6" t="s">
         <v>69</v>
       </c>
@@ -2361,6 +2404,9 @@
       <c r="L24">
         <v>1</v>
       </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
       <c r="N24" s="6" t="s">
         <v>71</v>
       </c>
@@ -2396,6 +2442,9 @@
       <c r="L25">
         <v>1</v>
       </c>
+      <c r="M25">
+        <v>6</v>
+      </c>
       <c r="N25" s="6" t="s">
         <v>73</v>
       </c>
@@ -2431,6 +2480,9 @@
       <c r="L26">
         <v>1</v>
       </c>
+      <c r="M26">
+        <v>6</v>
+      </c>
       <c r="N26" s="6" t="s">
         <v>74</v>
       </c>
@@ -2466,6 +2518,7 @@
       <c r="L27">
         <v>1</v>
       </c>
+      <c r="M27"/>
       <c r="N27" s="6" t="s">
         <v>75</v>
       </c>
@@ -2498,6 +2551,7 @@
       <c r="L28">
         <v>1</v>
       </c>
+      <c r="M28"/>
       <c r="N28" s="6" t="s">
         <v>75</v>
       </c>
@@ -2530,6 +2584,7 @@
       <c r="L29">
         <v>1</v>
       </c>
+      <c r="M29"/>
       <c r="N29" s="6" t="s">
         <v>75</v>
       </c>
@@ -2562,6 +2617,7 @@
       <c r="L30">
         <v>1</v>
       </c>
+      <c r="M30"/>
       <c r="N30" s="6" t="s">
         <v>75</v>
       </c>

--- a/mini-game/Assets/Resources/doc/character.xlsx
+++ b/mini-game/Assets/Resources/doc/character.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t>角色id</t>
   </si>
@@ -34,6 +34,9 @@
     <t>攻击</t>
   </si>
   <si>
+    <t>技能id</t>
+  </si>
+  <si>
     <t>攻击范围</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>attack_damage</t>
+  </si>
+  <si>
+    <t>skill_id</t>
   </si>
   <si>
     <t xml:space="preserve">attack_range </t>
@@ -331,7 +337,7 @@
     </r>
   </si>
   <si>
-    <t>跳跳羊</t>
+    <t>跑跑羊</t>
   </si>
   <si>
     <r>
@@ -437,9 +443,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -462,21 +468,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,7 +503,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,18 +555,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -530,7 +571,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,14 +592,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -559,49 +599,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -617,11 +615,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -640,187 +646,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,6 +870,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -891,19 +932,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,175 +952,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,13 +1104,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1366,10 +1372,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1378,7 +1384,7 @@
     <col min="4" max="4" width="16.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1397,13 +1403,13 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1424,78 +1430,84 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="H2" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="I2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:18">
+      <c r="R2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:19">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1503,47 +1515,47 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>240</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>90</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6">
         <v>2</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="6">
         <v>4</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>3</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3"/>
-      <c r="N3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3">
         <v>3</v>
-      </c>
-      <c r="Q3">
-        <v>1.5</v>
       </c>
       <c r="R3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:18">
+      <c r="S3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:19">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1557,41 +1569,40 @@
       <c r="F4">
         <v>108</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>5</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4"/>
-      <c r="N4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4">
         <v>3</v>
-      </c>
-      <c r="Q4">
-        <v>1.5</v>
       </c>
       <c r="R4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:18">
+      <c r="S4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:19">
       <c r="A5">
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1605,41 +1616,40 @@
       <c r="F5">
         <v>120</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5"/>
-      <c r="N5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5">
         <v>3</v>
-      </c>
-      <c r="Q5">
-        <v>1.5</v>
       </c>
       <c r="R5">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:18">
+      <c r="S5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:19">
       <c r="A6">
         <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1653,41 +1663,40 @@
       <c r="F6">
         <v>144</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>4</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6"/>
-      <c r="N6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6">
         <v>3</v>
-      </c>
-      <c r="Q6">
-        <v>1.5</v>
       </c>
       <c r="R6">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:18">
+      <c r="S6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:19">
       <c r="A7">
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1701,41 +1710,40 @@
       <c r="F7">
         <v>80</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
         <v>5</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>2</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7"/>
-      <c r="N7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7">
         <v>3</v>
-      </c>
-      <c r="Q7">
-        <v>1.5</v>
       </c>
       <c r="R7">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:18">
+      <c r="S7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:19">
       <c r="A8">
         <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1749,41 +1757,40 @@
       <c r="F8">
         <v>96</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
       <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>5</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>5</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8"/>
-      <c r="N8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8">
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8">
         <v>3</v>
-      </c>
-      <c r="Q8">
-        <v>1.5</v>
       </c>
       <c r="R8">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:18">
+      <c r="S8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:19">
       <c r="A9">
         <v>1007</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>48</v>
+      <c r="B9" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1795,40 +1802,42 @@
         <v>360</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2001</v>
       </c>
       <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>5</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>10</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>5</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9"/>
-      <c r="N9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>1.5</v>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
       </c>
       <c r="R9">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:18">
+      <c r="S9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:19">
       <c r="A10">
         <v>1008</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>50</v>
+      <c r="B10" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1840,40 +1849,42 @@
         <v>360</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2002</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>5</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>10</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>5</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10"/>
-      <c r="N10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>1.5</v>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
       </c>
       <c r="R10">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:18">
+      <c r="S10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:19">
       <c r="A11">
         <v>1009</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>52</v>
+      <c r="B11" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1885,40 +1896,42 @@
         <v>360</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2003</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>5</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>10</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>5</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11"/>
-      <c r="N11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>1.5</v>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
       </c>
       <c r="R11">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:18">
+      <c r="S11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:19">
       <c r="A12">
         <v>1010</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>54</v>
+      <c r="B12" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1930,40 +1943,42 @@
         <v>360</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2004</v>
       </c>
       <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
         <v>5</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>10</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>5</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12"/>
-      <c r="N12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>1.5</v>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
       </c>
       <c r="R12">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:16">
+      <c r="S12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:17">
       <c r="A13">
         <v>1101</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>56</v>
+      <c r="B13" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1977,31 +1992,31 @@
       <c r="F13">
         <v>64</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
       <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
         <v>5</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
         <v>6</v>
       </c>
-      <c r="N13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P13">
+      <c r="O13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:16">
+    <row r="14" customHeight="1" spans="1:17">
       <c r="A14">
         <v>1102</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>57</v>
+      <c r="B14" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2015,31 +2030,31 @@
       <c r="F14">
         <v>77</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
       <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
         <v>5</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
       <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
         <v>6</v>
       </c>
-      <c r="N14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P14">
+      <c r="O14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14">
         <v>7</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:16">
+    <row r="15" customHeight="1" spans="1:17">
       <c r="A15">
         <v>1103</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>58</v>
+      <c r="B15" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2053,31 +2068,31 @@
       <c r="F15">
         <v>96</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
       <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>4</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
       <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
         <v>5</v>
       </c>
-      <c r="N15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="P15">
+      <c r="O15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q15">
         <v>7</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:16">
+    <row r="16" customHeight="1" spans="1:17">
       <c r="A16">
         <v>1104</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>59</v>
+      <c r="B16" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2091,31 +2106,31 @@
       <c r="F16">
         <v>115</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
       <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <v>4</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
         <v>5</v>
       </c>
-      <c r="N16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P16">
+      <c r="O16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16">
         <v>7</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:16">
+    <row r="17" customHeight="1" spans="1:17">
       <c r="A17">
         <v>1105</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>60</v>
+      <c r="B17" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2129,31 +2144,31 @@
       <c r="F17">
         <v>144</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
         <v>4</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
       <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
         <v>5</v>
       </c>
-      <c r="N17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P17">
+      <c r="O17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17">
         <v>7</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:16">
+    <row r="18" customHeight="1" spans="1:17">
       <c r="A18">
         <v>1106</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>61</v>
+      <c r="B18" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2167,31 +2182,31 @@
       <c r="F18">
         <v>96</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>4</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
       <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
         <v>5</v>
       </c>
-      <c r="N18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P18">
+      <c r="O18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q18">
         <v>7</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:16">
+    <row r="19" customHeight="1" spans="1:17">
       <c r="A19">
         <v>1107</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>62</v>
+      <c r="B19" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2205,31 +2220,31 @@
       <c r="F19">
         <v>115</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
       <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>4</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
       <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
         <v>5</v>
       </c>
-      <c r="N19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="P19">
+      <c r="O19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q19">
         <v>7</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:16">
+    <row r="20" customHeight="1" spans="1:17">
       <c r="A20">
         <v>1108</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>64</v>
+      <c r="B20" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2243,31 +2258,31 @@
       <c r="F20">
         <v>108</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>2</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>4</v>
       </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
       <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
         <v>6</v>
       </c>
-      <c r="N20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="P20">
+      <c r="O20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q20">
         <v>7</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:16">
+    <row r="21" customHeight="1" spans="1:17">
       <c r="A21">
         <v>1109</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>65</v>
+      <c r="B21" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -2281,31 +2296,31 @@
       <c r="F21">
         <v>129</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>2</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>4</v>
       </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
       <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
         <v>6</v>
       </c>
-      <c r="N21" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P21">
+      <c r="O21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q21">
         <v>7</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:16">
+    <row r="22" customHeight="1" spans="1:17">
       <c r="A22">
         <v>1110</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>66</v>
+      <c r="B22" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -2319,31 +2334,31 @@
       <c r="F22">
         <v>155</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>2</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>4</v>
       </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
       <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
         <v>6</v>
       </c>
-      <c r="N22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="P22">
+      <c r="O22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:16">
+    <row r="23" customHeight="1" spans="1:17">
       <c r="A23">
         <v>1111</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>68</v>
+      <c r="B23" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -2357,31 +2372,31 @@
       <c r="F23">
         <v>208</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
       <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
         <v>4</v>
       </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
       <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
         <v>5</v>
       </c>
-      <c r="N23" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="P23">
+      <c r="O23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q23">
         <v>7</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:16">
+    <row r="24" customHeight="1" spans="1:17">
       <c r="A24">
         <v>1112</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>70</v>
+      <c r="B24" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -2395,31 +2410,31 @@
       <c r="F24">
         <v>155</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>2</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>4</v>
       </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
       <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
         <v>6</v>
       </c>
-      <c r="N24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="P24">
+      <c r="O24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q24">
         <v>7</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:16">
+    <row r="25" customHeight="1" spans="1:17">
       <c r="A25">
         <v>1113</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>72</v>
+      <c r="B25" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -2433,31 +2448,31 @@
       <c r="F25">
         <v>139</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
       <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>5</v>
       </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
       <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
         <v>6</v>
       </c>
-      <c r="N25" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="P25">
+      <c r="O25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q25">
         <v>7</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:16">
+    <row r="26" customHeight="1" spans="1:17">
       <c r="A26">
         <v>1114</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>74</v>
+      <c r="B26" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -2471,31 +2486,31 @@
       <c r="F26">
         <v>162</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
       <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>5</v>
       </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
       <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
         <v>6</v>
       </c>
-      <c r="N26" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="P26">
+      <c r="O26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q26">
         <v>7</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:14">
+    <row r="27" customHeight="1" spans="1:15">
       <c r="A27">
         <v>1201</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>75</v>
+      <c r="B27" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2506,29 +2521,28 @@
       <c r="F27">
         <v>90</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
       <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>4</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27"/>
-      <c r="N27" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:14">
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:15">
       <c r="A28">
         <v>1202</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>75</v>
+      <c r="B28" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2539,29 +2553,28 @@
       <c r="F28">
         <v>100</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
       <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
         <v>4</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>2</v>
       </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28"/>
-      <c r="N28" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:14">
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:15">
       <c r="A29">
         <v>1203</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>75</v>
+      <c r="B29" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2572,29 +2585,28 @@
       <c r="F29">
         <v>110</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
       <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
         <v>4</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>3</v>
       </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29"/>
-      <c r="N29" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:14">
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:15">
       <c r="A30">
         <v>1204</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>75</v>
+      <c r="B30" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2605,21 +2617,20 @@
       <c r="F30">
         <v>120</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
       <c r="H30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>4</v>
       </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30"/>
-      <c r="N30" s="6" t="s">
-        <v>75</v>
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/mini-game/Assets/Resources/doc/character.xlsx
+++ b/mini-game/Assets/Resources/doc/character.xlsx
@@ -337,7 +337,7 @@
     </r>
   </si>
   <si>
-    <t>跑跑羊</t>
+    <t>炮炮羊</t>
   </si>
   <si>
     <r>
@@ -442,9 +442,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -481,14 +481,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,8 +510,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,18 +546,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -577,23 +599,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,14 +630,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -646,31 +646,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,13 +814,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,133 +826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,28 +855,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,21 +875,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,9 +896,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,16 +914,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -955,148 +955,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1375,7 +1375,7 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1384,7 +1384,7 @@
     <col min="4" max="4" width="16.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" ht="12.75" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" ht="13.5" spans="1:19">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>240</v>
       </c>
       <c r="F3" s="6">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6">
@@ -1567,7 +1567,7 @@
         <v>288</v>
       </c>
       <c r="F4">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -2256,7 +2256,7 @@
         <v>288</v>
       </c>
       <c r="F20">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2294,7 +2294,7 @@
         <v>345</v>
       </c>
       <c r="F21">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2332,7 +2332,7 @@
         <v>414</v>
       </c>
       <c r="F22">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2408,7 +2408,7 @@
         <v>414</v>
       </c>
       <c r="F24">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="H24">
         <v>2</v>

--- a/mini-game/Assets/Resources/doc/character.xlsx
+++ b/mini-game/Assets/Resources/doc/character.xlsx
@@ -442,9 +442,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -480,23 +480,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,60 +495,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,7 +527,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,8 +571,30 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,6 +615,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -646,25 +646,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,157 +808,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,30 +855,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -896,11 +872,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,6 +884,30 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,174 +927,176 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1375,7 +1375,7 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1705,10 +1705,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>528</v>
+        <v>480</v>
       </c>
       <c r="F7">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1752,10 +1752,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>634</v>
+        <v>576</v>
       </c>
       <c r="F8">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>360</v>
+        <v>432</v>
       </c>
       <c r="G9">
         <v>2001</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>360</v>
+        <v>432</v>
       </c>
       <c r="G10">
         <v>2002</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>360</v>
+        <v>432</v>
       </c>
       <c r="G11">
         <v>2003</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>360</v>
+        <v>432</v>
       </c>
       <c r="G12">
         <v>2004</v>
@@ -1987,10 +1987,10 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>422</v>
+        <v>336</v>
       </c>
       <c r="F13">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2025,10 +2025,10 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="F14">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2063,10 +2063,10 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="F15">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2101,10 +2101,10 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>422</v>
+        <v>370</v>
       </c>
       <c r="F16">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2139,10 +2139,10 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>528</v>
+        <v>462</v>
       </c>
       <c r="F17">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2177,10 +2177,10 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="F18">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2215,10 +2215,10 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>422</v>
+        <v>370</v>
       </c>
       <c r="F19">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2253,10 +2253,10 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="F20">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2291,10 +2291,10 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>345</v>
+        <v>303</v>
       </c>
       <c r="F21">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2329,10 +2329,10 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="F22">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2367,10 +2367,10 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>760</v>
+        <v>722</v>
       </c>
       <c r="F23">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2405,10 +2405,10 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="F24">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2443,10 +2443,10 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>913</v>
+        <v>787</v>
       </c>
       <c r="F25">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2481,10 +2481,10 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>1065</v>
+        <v>847</v>
       </c>
       <c r="F26">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H26">
         <v>1</v>

--- a/mini-game/Assets/Resources/doc/character.xlsx
+++ b/mini-game/Assets/Resources/doc/character.xlsx
@@ -443,9 +443,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -480,9 +480,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,8 +523,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,29 +563,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,7 +571,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,13 +586,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -594,7 +594,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,13 +616,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,6 +623,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -646,19 +646,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,49 +802,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,109 +826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,74 +855,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,6 +881,60 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -952,151 +943,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1374,8 +1374,8 @@
   </sheetPr>
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -2008,7 +2008,7 @@
         <v>58</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:17">
@@ -2046,7 +2046,7 @@
         <v>59</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:17">
@@ -2084,7 +2084,7 @@
         <v>60</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:17">
@@ -2122,7 +2122,7 @@
         <v>61</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:17">
@@ -2160,7 +2160,7 @@
         <v>62</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:17">
@@ -2198,7 +2198,7 @@
         <v>63</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:17">
@@ -2236,7 +2236,7 @@
         <v>65</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:17">
@@ -2274,7 +2274,7 @@
         <v>66</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:17">
@@ -2312,7 +2312,7 @@
         <v>67</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:17">
@@ -2350,7 +2350,7 @@
         <v>69</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:17">
@@ -2388,7 +2388,7 @@
         <v>71</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:17">
@@ -2426,7 +2426,7 @@
         <v>73</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:17">
@@ -2464,7 +2464,7 @@
         <v>75</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:17">
@@ -2502,7 +2502,7 @@
         <v>76</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:15">

--- a/mini-game/Assets/Resources/doc/character.xlsx
+++ b/mini-game/Assets/Resources/doc/character.xlsx
@@ -442,10 +442,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -495,7 +495,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,16 +546,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,15 +599,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,30 +609,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,21 +630,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -646,13 +646,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,19 +778,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,145 +826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,17 +864,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,8 +882,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,21 +899,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,6 +920,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -943,160 +952,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1374,8 +1374,8 @@
   </sheetPr>
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1987,10 +1987,10 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="F13">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2025,10 +2025,10 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="F14">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2063,10 +2063,10 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="F15">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2101,10 +2101,10 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="F16">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2139,10 +2139,10 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>462</v>
+        <v>396</v>
       </c>
       <c r="F17">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2177,10 +2177,10 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="F18">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2215,10 +2215,10 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="F19">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2253,10 +2253,10 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="F20">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2291,10 +2291,10 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="F21">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2329,10 +2329,10 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="F22">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2367,10 +2367,10 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>722</v>
+        <v>619</v>
       </c>
       <c r="F23">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2405,10 +2405,10 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="F24">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2443,10 +2443,10 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>787</v>
+        <v>675</v>
       </c>
       <c r="F25">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2481,10 +2481,10 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>847</v>
+        <v>727</v>
       </c>
       <c r="F26">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="H26">
         <v>1</v>

--- a/mini-game/Assets/Resources/doc/character.xlsx
+++ b/mini-game/Assets/Resources/doc/character.xlsx
@@ -442,10 +442,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -481,81 +481,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,31 +510,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,9 +531,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,6 +560,76 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -646,187 +646,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,26 +855,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,6 +895,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -922,22 +928,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,148 +955,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1375,7 +1375,7 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1729,7 +1729,7 @@
         <v>47</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R7">
         <v>1.5</v>
@@ -1822,9 +1822,6 @@
       <c r="O9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
       <c r="R9">
         <v>1.5</v>
       </c>
@@ -1915,9 +1912,6 @@
       </c>
       <c r="O11" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
       </c>
       <c r="R11">
         <v>1.5</v>

--- a/mini-game/Assets/Resources/doc/character.xlsx
+++ b/mini-game/Assets/Resources/doc/character.xlsx
@@ -442,10 +442,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -483,15 +483,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,6 +522,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Arial"/>
@@ -516,6 +537,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -524,15 +546,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,9 +568,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,8 +585,31 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,29 +617,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,30 +630,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -646,61 +646,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,121 +814,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,26 +855,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,21 +901,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,167 +932,171 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1374,8 +1374,8 @@
   </sheetPr>
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13:S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1528,6 +1528,9 @@
       <c r="I3" s="6">
         <v>4</v>
       </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
       <c r="K3">
         <v>3</v>
       </c>
@@ -1537,11 +1540,17 @@
       <c r="M3">
         <v>1</v>
       </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
       <c r="O3" s="7" t="s">
         <v>39</v>
       </c>
       <c r="P3">
         <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
       </c>
       <c r="R3">
         <v>1.5</v>
@@ -1575,6 +1584,9 @@
       <c r="I4">
         <v>4</v>
       </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
       <c r="K4">
         <v>5</v>
       </c>
@@ -1584,11 +1596,17 @@
       <c r="M4">
         <v>1</v>
       </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>41</v>
       </c>
       <c r="P4">
         <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
       </c>
       <c r="R4">
         <v>1.5</v>
@@ -1622,6 +1640,9 @@
       <c r="I5">
         <v>4</v>
       </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
       <c r="K5">
         <v>3</v>
       </c>
@@ -1631,11 +1652,17 @@
       <c r="M5">
         <v>1</v>
       </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P5">
         <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
       </c>
       <c r="R5">
         <v>1.5</v>
@@ -1669,6 +1696,9 @@
       <c r="I6">
         <v>4</v>
       </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
       <c r="K6">
         <v>5</v>
       </c>
@@ -1678,11 +1708,17 @@
       <c r="M6">
         <v>1</v>
       </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
       <c r="O6" s="7" t="s">
         <v>45</v>
       </c>
       <c r="P6">
         <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
       </c>
       <c r="R6">
         <v>1.5</v>
@@ -1716,6 +1752,9 @@
       <c r="I7">
         <v>5</v>
       </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
       <c r="K7">
         <v>3</v>
       </c>
@@ -1725,11 +1764,17 @@
       <c r="M7">
         <v>1</v>
       </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
       </c>
       <c r="P7">
         <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
       </c>
       <c r="R7">
         <v>1.5</v>
@@ -1763,6 +1808,9 @@
       <c r="I8">
         <v>5</v>
       </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
       <c r="K8">
         <v>5</v>
       </c>
@@ -1772,11 +1820,17 @@
       <c r="M8">
         <v>1</v>
       </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
       </c>
       <c r="P8">
         <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
       </c>
       <c r="R8">
         <v>1.5</v>
@@ -1801,6 +1855,9 @@
       <c r="E9">
         <v>432</v>
       </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
       <c r="G9">
         <v>2001</v>
       </c>
@@ -1810,6 +1867,9 @@
       <c r="I9">
         <v>5</v>
       </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
       <c r="K9">
         <v>10</v>
       </c>
@@ -1819,8 +1879,17 @@
       <c r="M9">
         <v>1</v>
       </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
       <c r="O9" s="7" t="s">
         <v>51</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
       </c>
       <c r="R9">
         <v>1.5</v>
@@ -1845,6 +1914,9 @@
       <c r="E10">
         <v>432</v>
       </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
       <c r="G10">
         <v>2002</v>
       </c>
@@ -1854,6 +1926,9 @@
       <c r="I10">
         <v>5</v>
       </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
       <c r="K10">
         <v>10</v>
       </c>
@@ -1863,11 +1938,17 @@
       <c r="M10">
         <v>1</v>
       </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
       <c r="O10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="P10">
         <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
       </c>
       <c r="R10">
         <v>1.5</v>
@@ -1892,6 +1973,9 @@
       <c r="E11">
         <v>432</v>
       </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
       <c r="G11">
         <v>2003</v>
       </c>
@@ -1901,6 +1985,9 @@
       <c r="I11">
         <v>5</v>
       </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
       <c r="K11">
         <v>10</v>
       </c>
@@ -1910,8 +1997,17 @@
       <c r="M11">
         <v>1</v>
       </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
       <c r="O11" s="7" t="s">
         <v>55</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
       </c>
       <c r="R11">
         <v>1.5</v>
@@ -1936,6 +2032,9 @@
       <c r="E12">
         <v>432</v>
       </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
       <c r="G12">
         <v>2004</v>
       </c>
@@ -1945,6 +2044,9 @@
       <c r="I12">
         <v>5</v>
       </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
       <c r="K12">
         <v>10</v>
       </c>
@@ -1954,12 +2056,18 @@
       <c r="M12">
         <v>1</v>
       </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
       <c r="O12" s="7" t="s">
         <v>57</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
       <c r="R12">
         <v>1.5</v>
       </c>
@@ -1967,7 +2075,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:17">
+    <row r="13" customHeight="1" spans="1:19">
       <c r="A13">
         <v>1101</v>
       </c>
@@ -1992,6 +2100,15 @@
       <c r="I13">
         <v>5</v>
       </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
       <c r="M13">
         <v>1</v>
       </c>
@@ -2001,11 +2118,20 @@
       <c r="O13" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
       <c r="Q13">
         <v>4</v>
       </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" customHeight="1" spans="1:17">
+    <row r="14" customHeight="1" spans="1:19">
       <c r="A14">
         <v>1102</v>
       </c>
@@ -2030,6 +2156,15 @@
       <c r="I14">
         <v>5</v>
       </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
       <c r="M14">
         <v>1</v>
       </c>
@@ -2039,11 +2174,20 @@
       <c r="O14" s="7" t="s">
         <v>59</v>
       </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
       <c r="Q14">
         <v>4</v>
       </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" customHeight="1" spans="1:17">
+    <row r="15" customHeight="1" spans="1:19">
       <c r="A15">
         <v>1103</v>
       </c>
@@ -2068,6 +2212,15 @@
       <c r="I15">
         <v>4</v>
       </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
       <c r="M15">
         <v>1</v>
       </c>
@@ -2077,11 +2230,20 @@
       <c r="O15" s="7" t="s">
         <v>60</v>
       </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
       <c r="Q15">
         <v>4</v>
       </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" customHeight="1" spans="1:17">
+    <row r="16" customHeight="1" spans="1:19">
       <c r="A16">
         <v>1104</v>
       </c>
@@ -2106,6 +2268,15 @@
       <c r="I16">
         <v>4</v>
       </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
       <c r="M16">
         <v>1</v>
       </c>
@@ -2115,11 +2286,20 @@
       <c r="O16" s="7" t="s">
         <v>61</v>
       </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
       <c r="Q16">
         <v>4</v>
       </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" customHeight="1" spans="1:17">
+    <row r="17" customHeight="1" spans="1:19">
       <c r="A17">
         <v>1105</v>
       </c>
@@ -2144,6 +2324,15 @@
       <c r="I17">
         <v>4</v>
       </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
       <c r="M17">
         <v>1</v>
       </c>
@@ -2153,11 +2342,20 @@
       <c r="O17" s="7" t="s">
         <v>62</v>
       </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
       <c r="Q17">
         <v>4</v>
       </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" customHeight="1" spans="1:17">
+    <row r="18" customHeight="1" spans="1:19">
       <c r="A18">
         <v>1106</v>
       </c>
@@ -2182,6 +2380,15 @@
       <c r="I18">
         <v>4</v>
       </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
       <c r="M18">
         <v>1</v>
       </c>
@@ -2191,11 +2398,20 @@
       <c r="O18" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
       <c r="Q18">
         <v>4</v>
       </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" customHeight="1" spans="1:17">
+    <row r="19" customHeight="1" spans="1:19">
       <c r="A19">
         <v>1107</v>
       </c>
@@ -2220,6 +2436,15 @@
       <c r="I19">
         <v>4</v>
       </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
       <c r="M19">
         <v>1</v>
       </c>
@@ -2229,11 +2454,20 @@
       <c r="O19" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
       <c r="Q19">
         <v>4</v>
       </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" customHeight="1" spans="1:17">
+    <row r="20" customHeight="1" spans="1:19">
       <c r="A20">
         <v>1108</v>
       </c>
@@ -2258,6 +2492,15 @@
       <c r="I20">
         <v>4</v>
       </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
       <c r="M20">
         <v>1</v>
       </c>
@@ -2267,11 +2510,20 @@
       <c r="O20" s="7" t="s">
         <v>66</v>
       </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
       <c r="Q20">
         <v>4</v>
       </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" customHeight="1" spans="1:17">
+    <row r="21" customHeight="1" spans="1:19">
       <c r="A21">
         <v>1109</v>
       </c>
@@ -2296,6 +2548,15 @@
       <c r="I21">
         <v>4</v>
       </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
       <c r="M21">
         <v>1</v>
       </c>
@@ -2305,11 +2566,20 @@
       <c r="O21" s="7" t="s">
         <v>67</v>
       </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
       <c r="Q21">
         <v>4</v>
       </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" customHeight="1" spans="1:17">
+    <row r="22" customHeight="1" spans="1:19">
       <c r="A22">
         <v>1110</v>
       </c>
@@ -2334,6 +2604,15 @@
       <c r="I22">
         <v>4</v>
       </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
       <c r="M22">
         <v>1</v>
       </c>
@@ -2343,11 +2622,20 @@
       <c r="O22" s="7" t="s">
         <v>69</v>
       </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
       <c r="Q22">
         <v>4</v>
       </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" customHeight="1" spans="1:17">
+    <row r="23" customHeight="1" spans="1:19">
       <c r="A23">
         <v>1111</v>
       </c>
@@ -2372,6 +2660,15 @@
       <c r="I23">
         <v>4</v>
       </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
       <c r="M23">
         <v>1</v>
       </c>
@@ -2381,11 +2678,20 @@
       <c r="O23" s="7" t="s">
         <v>71</v>
       </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
       <c r="Q23">
         <v>4</v>
       </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" customHeight="1" spans="1:17">
+    <row r="24" customHeight="1" spans="1:19">
       <c r="A24">
         <v>1112</v>
       </c>
@@ -2410,6 +2716,15 @@
       <c r="I24">
         <v>4</v>
       </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
       <c r="M24">
         <v>1</v>
       </c>
@@ -2419,11 +2734,20 @@
       <c r="O24" s="7" t="s">
         <v>73</v>
       </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
       <c r="Q24">
         <v>4</v>
       </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" customHeight="1" spans="1:17">
+    <row r="25" customHeight="1" spans="1:19">
       <c r="A25">
         <v>1113</v>
       </c>
@@ -2448,6 +2772,15 @@
       <c r="I25">
         <v>5</v>
       </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
       <c r="M25">
         <v>1</v>
       </c>
@@ -2457,11 +2790,20 @@
       <c r="O25" s="7" t="s">
         <v>75</v>
       </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
       <c r="Q25">
         <v>4</v>
       </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" customHeight="1" spans="1:17">
+    <row r="26" customHeight="1" spans="1:19">
       <c r="A26">
         <v>1114</v>
       </c>
@@ -2486,6 +2828,15 @@
       <c r="I26">
         <v>5</v>
       </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
       <c r="M26">
         <v>1</v>
       </c>
@@ -2495,17 +2846,29 @@
       <c r="O26" s="7" t="s">
         <v>76</v>
       </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
       <c r="Q26">
         <v>4</v>
       </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" customHeight="1" spans="1:15">
+    <row r="27" customHeight="1" spans="1:19">
       <c r="A27">
         <v>1201</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>77</v>
       </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
       <c r="D27">
         <v>0</v>
       </c>
@@ -2524,20 +2887,44 @@
       <c r="J27">
         <v>1</v>
       </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
       <c r="M27">
         <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>77</v>
       </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" customHeight="1" spans="1:15">
+    <row r="28" customHeight="1" spans="1:19">
       <c r="A28">
         <v>1202</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>77</v>
       </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
       <c r="D28">
         <v>0</v>
       </c>
@@ -2556,20 +2943,44 @@
       <c r="J28">
         <v>2</v>
       </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
       <c r="M28">
         <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>77</v>
       </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" customHeight="1" spans="1:15">
+    <row r="29" customHeight="1" spans="1:19">
       <c r="A29">
         <v>1203</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>77</v>
       </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
       <c r="D29">
         <v>0</v>
       </c>
@@ -2588,20 +2999,44 @@
       <c r="J29">
         <v>3</v>
       </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
       <c r="M29">
         <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>77</v>
       </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" customHeight="1" spans="1:15">
+    <row r="30" customHeight="1" spans="1:19">
       <c r="A30">
         <v>1204</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>77</v>
       </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
       <c r="D30">
         <v>0</v>
       </c>
@@ -2620,11 +3055,32 @@
       <c r="J30">
         <v>4</v>
       </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
       <c r="M30">
         <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>77</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/mini-game/Assets/Resources/doc/character.xlsx
+++ b/mini-game/Assets/Resources/doc/character.xlsx
@@ -130,7 +130,7 @@
     <t>attack_index</t>
   </si>
   <si>
-    <t>archer</t>
+    <t>Archer</t>
   </si>
   <si>
     <r>
@@ -153,7 +153,7 @@
     </r>
   </si>
   <si>
-    <t>emiya</t>
+    <t>Flare</t>
   </si>
   <si>
     <r>
@@ -176,7 +176,7 @@
     </r>
   </si>
   <si>
-    <t>axe</t>
+    <t>Blade</t>
   </si>
   <si>
     <r>
@@ -199,7 +199,7 @@
     </r>
   </si>
   <si>
-    <t>zephyr</t>
+    <t>Zephyrus</t>
   </si>
   <si>
     <r>
@@ -222,7 +222,7 @@
     </r>
   </si>
   <si>
-    <t>knight</t>
+    <t>Knight</t>
   </si>
   <si>
     <r>
@@ -245,7 +245,7 @@
     </r>
   </si>
   <si>
-    <t>paladin</t>
+    <t>Paladin</t>
   </si>
   <si>
     <r>
@@ -443,9 +443,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -487,10 +487,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,13 +518,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -527,21 +529,6 @@
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -562,7 +549,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,6 +595,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,51 +617,19 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -646,55 +646,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,61 +808,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,61 +826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,6 +855,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -864,13 +888,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,17 +918,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,181 +944,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1374,8 +1374,8 @@
   </sheetPr>
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13:S30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>

--- a/mini-game/Assets/Resources/doc/character.xlsx
+++ b/mini-game/Assets/Resources/doc/character.xlsx
@@ -443,9 +443,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -487,9 +487,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,7 +517,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,7 +586,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,36 +594,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,16 +624,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,187 +646,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,21 +855,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -881,9 +866,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,8 +908,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,11 +946,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,10 +958,10 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -970,133 +970,133 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1375,7 +1375,7 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -2092,7 +2092,7 @@
         <v>288</v>
       </c>
       <c r="F13">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2148,7 +2148,7 @@
         <v>346</v>
       </c>
       <c r="F14">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2204,7 +2204,7 @@
         <v>264</v>
       </c>
       <c r="F15">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2260,7 +2260,7 @@
         <v>317</v>
       </c>
       <c r="F16">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2316,7 +2316,7 @@
         <v>396</v>
       </c>
       <c r="F17">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2372,7 +2372,7 @@
         <v>264</v>
       </c>
       <c r="F18">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2428,7 +2428,7 @@
         <v>317</v>
       </c>
       <c r="F19">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2484,7 +2484,7 @@
         <v>216</v>
       </c>
       <c r="F20">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2540,7 +2540,7 @@
         <v>260</v>
       </c>
       <c r="F21">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2596,7 +2596,7 @@
         <v>338</v>
       </c>
       <c r="F22">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2652,7 +2652,7 @@
         <v>619</v>
       </c>
       <c r="F23">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2708,7 +2708,7 @@
         <v>338</v>
       </c>
       <c r="F24">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2764,7 +2764,7 @@
         <v>675</v>
       </c>
       <c r="F25">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2820,7 +2820,7 @@
         <v>727</v>
       </c>
       <c r="F26">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2873,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="F27">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2929,10 +2929,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="F28">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2985,10 +2985,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="F29">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3041,10 +3041,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="F30">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H30">
         <v>1</v>

--- a/mini-game/Assets/Resources/doc/character.xlsx
+++ b/mini-game/Assets/Resources/doc/character.xlsx
@@ -442,10 +442,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -481,49 +481,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -538,11 +495,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -555,7 +518,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,6 +563,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
@@ -601,8 +587,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,97 +646,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,85 +820,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,15 +857,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -875,17 +866,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,30 +886,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,6 +908,45 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -955,148 +955,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1375,7 +1375,7 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="F27">
         <v>70</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="F28">
         <v>80</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="F29">
         <v>90</v>

--- a/mini-game/Assets/Resources/doc/character.xlsx
+++ b/mini-game/Assets/Resources/doc/character.xlsx
@@ -443,8 +443,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -481,14 +481,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -496,7 +488,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,31 +501,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,9 +532,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,7 +570,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -602,7 +593,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,8 +623,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,187 +646,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,11 +857,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,41 +903,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,151 +937,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1375,7 +1375,7 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -2092,7 +2092,7 @@
         <v>288</v>
       </c>
       <c r="F13">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2148,7 +2148,7 @@
         <v>346</v>
       </c>
       <c r="F14">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2204,7 +2204,7 @@
         <v>264</v>
       </c>
       <c r="F15">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2260,7 +2260,7 @@
         <v>317</v>
       </c>
       <c r="F16">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2372,7 +2372,7 @@
         <v>264</v>
       </c>
       <c r="F18">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2428,7 +2428,7 @@
         <v>317</v>
       </c>
       <c r="F19">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2484,7 +2484,7 @@
         <v>216</v>
       </c>
       <c r="F20">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2540,7 +2540,7 @@
         <v>260</v>
       </c>
       <c r="F21">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2596,7 +2596,7 @@
         <v>338</v>
       </c>
       <c r="F22">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2652,7 +2652,7 @@
         <v>619</v>
       </c>
       <c r="F23">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2708,7 +2708,7 @@
         <v>338</v>
       </c>
       <c r="F24">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2764,7 +2764,7 @@
         <v>675</v>
       </c>
       <c r="F25">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2820,7 +2820,7 @@
         <v>727</v>
       </c>
       <c r="F26">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="H26">
         <v>1</v>

--- a/mini-game/Assets/Resources/doc/character.xlsx
+++ b/mini-game/Assets/Resources/doc/character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="21000" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,9 +442,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -481,14 +481,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,9 +517,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -533,7 +578,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,61 +592,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,7 +617,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,187 +646,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,8 +858,71 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,30 +944,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -913,190 +952,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1375,7 +1375,7 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1945,7 +1945,7 @@
         <v>53</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>55</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <v>0</v>
